--- a/sdss_companion_photometry.xlsx
+++ b/sdss_companion_photometry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\environment_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{918C2A58-4D4E-43C8-B643-C52D3E912599}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{39C0F317-C8BE-4724-8510-79F83A8D7268}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6075" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,7 +494,7 @@
   <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sdss_companion_photometry.xlsx
+++ b/sdss_companion_photometry.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\environment_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{39C0F317-C8BE-4724-8510-79F83A8D7268}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{711A7C62-2628-487D-B8FA-C0300CD49463}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6075" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6072" tabRatio="840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HE 0040-1105" sheetId="1" r:id="rId1"/>
     <sheet name="RBS 175" sheetId="2" r:id="rId2"/>
     <sheet name="Mrk 1503" sheetId="3" r:id="rId3"/>
     <sheet name="Mrk 1018" sheetId="4" r:id="rId4"/>
-    <sheet name="Mrk 1044" sheetId="5" r:id="rId5"/>
-    <sheet name="Mrk 1048" sheetId="6" r:id="rId6"/>
+    <sheet name="Mrk 1044 - G" sheetId="5" r:id="rId5"/>
+    <sheet name="Mrk 1048 - G" sheetId="6" r:id="rId6"/>
     <sheet name="HE 0345+0056" sheetId="7" r:id="rId7"/>
-    <sheet name="HE 0853+0102" sheetId="8" r:id="rId8"/>
+    <sheet name="HE 0853+0102 - G" sheetId="8" r:id="rId8"/>
     <sheet name="Mrk 707" sheetId="9" r:id="rId9"/>
     <sheet name="HE 2222-0026" sheetId="10" r:id="rId10"/>
     <sheet name="Mrk 926" sheetId="11" r:id="rId11"/>
@@ -164,37 +164,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -494,37 +464,37 @@
   <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -598,7 +568,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>10.668867000000001</v>
       </c>
@@ -615,7 +585,7 @@
         <v>171.1</v>
       </c>
       <c r="F2" s="2">
-        <v>2.5840000000000001</v>
+        <v>2.585</v>
       </c>
       <c r="G2">
         <v>7.37466124521728E+17</v>
@@ -672,7 +642,7 @@
         <v>9.9753889999999994E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>10.618175000000001</v>
       </c>
@@ -746,7 +716,7 @@
         <v>3.1510999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>10.550902000000001</v>
       </c>
@@ -820,7 +790,7 @@
         <v>5.6668000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10.534293999999999</v>
       </c>
@@ -894,7 +864,7 @@
         <v>3.2843999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10.189514000000001</v>
       </c>
@@ -982,34 +952,34 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1083,7 +1053,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>336.00457999999998</v>
       </c>
@@ -1157,7 +1127,7 @@
         <v>2.2442E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>336.07839999999999</v>
       </c>
@@ -1231,7 +1201,7 @@
         <v>9.9326329999999997E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>336.26220000000001</v>
       </c>
@@ -1305,7 +1275,7 @@
         <v>1.2408000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>336.13350000000003</v>
       </c>
@@ -1379,7 +1349,7 @@
         <v>1.796E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>336.39452999999997</v>
       </c>
@@ -1453,7 +1423,7 @@
         <v>7.8664010000000003E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>336.36655000000002</v>
       </c>
@@ -1527,7 +1497,7 @@
         <v>6.5759310000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>336.40845000000002</v>
       </c>
@@ -1601,7 +1571,7 @@
         <v>4.7112000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>336.29226999999997</v>
       </c>
@@ -1675,7 +1645,7 @@
         <v>1.8200000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>336.05110000000002</v>
       </c>
@@ -1749,7 +1719,7 @@
         <v>4.6946000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>336.04208</v>
       </c>
@@ -1823,7 +1793,7 @@
         <v>0.124695</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>336.11227000000002</v>
       </c>
@@ -1897,7 +1867,7 @@
         <v>9.4570000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>336.54144000000002</v>
       </c>
@@ -1971,7 +1941,7 @@
         <v>6.2556E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>336.11367999999999</v>
       </c>
@@ -2045,7 +2015,7 @@
         <v>0.12950800000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>336.38495</v>
       </c>
@@ -2119,7 +2089,7 @@
         <v>3.1304999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>336.04790000000003</v>
       </c>
@@ -2193,7 +2163,7 @@
         <v>5.8819279999999998E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>335.79153000000002</v>
       </c>
@@ -2280,34 +2250,34 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2381,7 +2351,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>346.18326000000002</v>
       </c>
@@ -2455,7 +2425,7 @@
         <v>4.4586640000000002E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>346.1662</v>
       </c>
@@ -2529,7 +2499,7 @@
         <v>2.6953000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>346.38098000000002</v>
       </c>
@@ -2603,7 +2573,7 @@
         <v>1.3192000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>345.67325</v>
       </c>
@@ -2690,34 +2660,34 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2791,7 +2761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>33.622329999999998</v>
       </c>
@@ -2865,7 +2835,7 @@
         <v>1.5301E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>33.540962</v>
       </c>
@@ -2939,7 +2909,7 @@
         <v>6.0850000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>33.616390000000003</v>
       </c>
@@ -3013,7 +2983,7 @@
         <v>7.5465000000000004E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>33.460599999999999</v>
       </c>
@@ -3087,7 +3057,7 @@
         <v>4.4183E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>33.993656000000001</v>
       </c>
@@ -3161,7 +3131,7 @@
         <v>3.612302E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>33.308974999999997</v>
       </c>
@@ -3235,7 +3205,7 @@
         <v>3.4973999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>33.88317</v>
       </c>
@@ -3309,7 +3279,7 @@
         <v>2.9138000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>33.34825</v>
       </c>
@@ -3383,7 +3353,7 @@
         <v>0.1414</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>34.055435000000003</v>
       </c>
@@ -3457,7 +3427,7 @@
         <v>3.3059999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>34.056060000000002</v>
       </c>
@@ -3531,7 +3501,7 @@
         <v>5.3336000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>32.701349999999998</v>
       </c>
@@ -3605,7 +3575,7 @@
         <v>0.152313</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>34.576839999999997</v>
       </c>
@@ -3679,7 +3649,7 @@
         <v>0.35828599999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>34.066929999999999</v>
       </c>
@@ -3753,7 +3723,7 @@
         <v>0.11387799999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>34.646908000000003</v>
       </c>
@@ -3837,37 +3807,37 @@
   <dimension ref="A1:X113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="K114" sqref="K114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3941,7 +3911,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>19.211469999999998</v>
       </c>
@@ -4015,7 +3985,7 @@
         <v>2.7349999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>19.235610999999999</v>
       </c>
@@ -4089,7 +4059,7 @@
         <v>6.9966940000000004E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>19.147642000000001</v>
       </c>
@@ -4163,7 +4133,7 @@
         <v>6.7558999999999994E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>19.084833</v>
       </c>
@@ -4237,7 +4207,7 @@
         <v>2.2651000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>19.049685</v>
       </c>
@@ -4311,7 +4281,7 @@
         <v>6.4478999999999995E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>19.053265</v>
       </c>
@@ -4385,7 +4355,7 @@
         <v>4.0505460000000004E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>19.023315</v>
       </c>
@@ -4459,7 +4429,7 @@
         <v>4.1508409999999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>19.017529</v>
       </c>
@@ -4533,7 +4503,7 @@
         <v>7.5173649999999998E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>19.056639000000001</v>
       </c>
@@ -4607,7 +4577,7 @@
         <v>1.6372000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>19.00704</v>
       </c>
@@ -4681,7 +4651,7 @@
         <v>1.7472999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>19.504411999999999</v>
       </c>
@@ -4755,7 +4725,7 @@
         <v>6.5129999999999993E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>19.017189999999999</v>
       </c>
@@ -4829,7 +4799,7 @@
         <v>2.0381E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>19.093810000000001</v>
       </c>
@@ -4903,7 +4873,7 @@
         <v>8.0095229999999993E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>19.013770000000001</v>
       </c>
@@ -4977,7 +4947,7 @@
         <v>4.7378899999999998E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>19.089296000000001</v>
       </c>
@@ -5051,7 +5021,7 @@
         <v>4.6247000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>19.006004000000001</v>
       </c>
@@ -5125,7 +5095,7 @@
         <v>2.4265999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>19.497140000000002</v>
       </c>
@@ -5199,7 +5169,7 @@
         <v>6.6609349999999998E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18.918236</v>
       </c>
@@ -5273,7 +5243,7 @@
         <v>3.7331000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18.90504</v>
       </c>
@@ -5347,7 +5317,7 @@
         <v>1.1945000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>18.913343000000001</v>
       </c>
@@ -5421,7 +5391,7 @@
         <v>7.0369869999999998E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>18.906631000000001</v>
       </c>
@@ -5495,7 +5465,7 @@
         <v>2.5575000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>19.141413</v>
       </c>
@@ -5569,7 +5539,7 @@
         <v>3.1286000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>18.907171000000002</v>
       </c>
@@ -5643,7 +5613,7 @@
         <v>2.6599000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>18.883859999999999</v>
       </c>
@@ -5717,7 +5687,7 @@
         <v>7.6075209999999999E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>18.886246</v>
       </c>
@@ -5791,7 +5761,7 @@
         <v>1.5313E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>19.508189999999999</v>
       </c>
@@ -5865,7 +5835,7 @@
         <v>9.2441759999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>18.949801999999998</v>
       </c>
@@ -5939,7 +5909,7 @@
         <v>9.4786560000000002E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>18.915441999999999</v>
       </c>
@@ -6013,7 +5983,7 @@
         <v>9.7350779999999994E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>19.45673</v>
       </c>
@@ -6087,7 +6057,7 @@
         <v>1.3502E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>18.936869999999999</v>
       </c>
@@ -6161,7 +6131,7 @@
         <v>6.7552740000000003E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>18.93844</v>
       </c>
@@ -6235,7 +6205,7 @@
         <v>9.2602859999999995E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>18.907758999999999</v>
       </c>
@@ -6309,7 +6279,7 @@
         <v>2.7351E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>18.856192</v>
       </c>
@@ -6383,7 +6353,7 @@
         <v>7.6101789999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>18.873531</v>
       </c>
@@ -6457,7 +6427,7 @@
         <v>1.1594999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>19.456386999999999</v>
       </c>
@@ -6531,7 +6501,7 @@
         <v>0.165663</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>18.876932</v>
       </c>
@@ -6605,7 +6575,7 @@
         <v>4.7837729999999998E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>19.642209999999999</v>
       </c>
@@ -6679,7 +6649,7 @@
         <v>5.474624E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>19.613619</v>
       </c>
@@ -6753,7 +6723,7 @@
         <v>7.1256870000000003E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>19.642859999999999</v>
       </c>
@@ -6827,7 +6797,7 @@
         <v>4.0217000000000003E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>19.007899999999999</v>
       </c>
@@ -6901,7 +6871,7 @@
         <v>2.2158000000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>18.860937</v>
       </c>
@@ -6975,7 +6945,7 @@
         <v>9.4759400000000004E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>19.648351999999999</v>
       </c>
@@ -7049,7 +7019,7 @@
         <v>7.379025E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>18.860289000000002</v>
       </c>
@@ -7123,7 +7093,7 @@
         <v>1.0362E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>19.288374000000001</v>
       </c>
@@ -7197,7 +7167,7 @@
         <v>4.0849000000000003E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>18.982324999999999</v>
       </c>
@@ -7271,7 +7241,7 @@
         <v>7.7190999999999996E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>18.936308</v>
       </c>
@@ -7345,7 +7315,7 @@
         <v>1.3091E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>19.015975999999998</v>
       </c>
@@ -7419,7 +7389,7 @@
         <v>2.5732000000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>19.701136000000002</v>
       </c>
@@ -7493,7 +7463,7 @@
         <v>0.108346</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>19.617363000000001</v>
       </c>
@@ -7567,7 +7537,7 @@
         <v>9.7018999999999994E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>18.82319</v>
       </c>
@@ -7641,7 +7611,7 @@
         <v>6.675416E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>18.974046999999999</v>
       </c>
@@ -7715,7 +7685,7 @@
         <v>4.1245999999999998E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>19.616956999999999</v>
       </c>
@@ -7789,7 +7759,7 @@
         <v>1.9130000000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>18.791027</v>
       </c>
@@ -7863,7 +7833,7 @@
         <v>1.9675999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>18.883403999999999</v>
       </c>
@@ -7937,7 +7907,7 @@
         <v>6.4963390000000003E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>18.819894999999999</v>
       </c>
@@ -8011,7 +7981,7 @@
         <v>4.2657199999999998E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>19.648807999999999</v>
       </c>
@@ -8085,7 +8055,7 @@
         <v>1.1313999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>18.851527999999998</v>
       </c>
@@ -8159,7 +8129,7 @@
         <v>9.0880590000000008E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>18.87942</v>
       </c>
@@ -8233,7 +8203,7 @@
         <v>0.55740400000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>18.818445000000001</v>
       </c>
@@ -8307,7 +8277,7 @@
         <v>8.2982899999999998E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>18.785724999999999</v>
       </c>
@@ -8381,7 +8351,7 @@
         <v>1.0064999999999999E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>18.879909999999999</v>
       </c>
@@ -8455,7 +8425,7 @@
         <v>4.2090039999999997E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>18.79533</v>
       </c>
@@ -8529,7 +8499,7 @@
         <v>1.2112E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>18.878748000000002</v>
       </c>
@@ -8603,7 +8573,7 @@
         <v>1.1166000000000001E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>18.815777000000001</v>
       </c>
@@ -8677,7 +8647,7 @@
         <v>3.8389320000000002E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>18.853607</v>
       </c>
@@ -8751,7 +8721,7 @@
         <v>5.7121409999999996E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>18.836932999999998</v>
       </c>
@@ -8825,7 +8795,7 @@
         <v>4.7782930000000003E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>18.818151</v>
       </c>
@@ -8899,7 +8869,7 @@
         <v>1.2227999999999999E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>18.873692999999999</v>
       </c>
@@ -8973,7 +8943,7 @@
         <v>3.0124000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>18.756720999999999</v>
       </c>
@@ -9047,7 +9017,7 @@
         <v>4.6677999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>18.948996000000001</v>
       </c>
@@ -9121,7 +9091,7 @@
         <v>1.7579999999999998E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>18.864004000000001</v>
       </c>
@@ -9195,7 +9165,7 @@
         <v>9.4936999999999994E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>18.809156000000002</v>
       </c>
@@ -9269,7 +9239,7 @@
         <v>1.4356000000000001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>18.751156000000002</v>
       </c>
@@ -9343,7 +9313,7 @@
         <v>6.9921439999999996E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>18.756927000000001</v>
       </c>
@@ -9417,7 +9387,7 @@
         <v>2.3144000000000001E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>18.820620999999999</v>
       </c>
@@ -9491,7 +9461,7 @@
         <v>5.0851E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>18.784285000000001</v>
       </c>
@@ -9565,7 +9535,7 @@
         <v>7.6984000000000002E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>18.738800000000001</v>
       </c>
@@ -9639,7 +9609,7 @@
         <v>2.0139000000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>18.900372000000001</v>
       </c>
@@ -9713,7 +9683,7 @@
         <v>4.0967999999999997E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>18.808022000000001</v>
       </c>
@@ -9787,7 +9757,7 @@
         <v>1.3372999999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>19.20026</v>
       </c>
@@ -9861,7 +9831,7 @@
         <v>6.0474379999999996E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>19.401320999999999</v>
       </c>
@@ -9935,7 +9905,7 @@
         <v>3.0713000000000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>18.727589999999999</v>
       </c>
@@ -10009,7 +9979,7 @@
         <v>8.1297690000000002E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>18.818066000000002</v>
       </c>
@@ -10083,7 +10053,7 @@
         <v>5.0741000000000001E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>19.101524000000001</v>
       </c>
@@ -10157,7 +10127,7 @@
         <v>5.3074000000000003E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>18.837553</v>
       </c>
@@ -10231,7 +10201,7 @@
         <v>1.4373E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>18.786650000000002</v>
       </c>
@@ -10305,7 +10275,7 @@
         <v>6.2151400000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>18.734428000000001</v>
       </c>
@@ -10379,7 +10349,7 @@
         <v>4.461792E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>18.786728</v>
       </c>
@@ -10453,7 +10423,7 @@
         <v>1.2631E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>18.809799999999999</v>
       </c>
@@ -10527,7 +10497,7 @@
         <v>9.0321499999999992E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>18.785043999999999</v>
       </c>
@@ -10601,7 +10571,7 @@
         <v>7.2835770000000003E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>18.759604</v>
       </c>
@@ -10675,7 +10645,7 @@
         <v>8.37829E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>19.730346999999998</v>
       </c>
@@ -10749,7 +10719,7 @@
         <v>7.9393180000000008E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>18.747976000000001</v>
       </c>
@@ -10823,7 +10793,7 @@
         <v>3.2538999999999998E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>18.803699999999999</v>
       </c>
@@ -10897,7 +10867,7 @@
         <v>5.3206520000000004E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>19.689209999999999</v>
       </c>
@@ -10971,7 +10941,7 @@
         <v>7.2812000000000002E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>18.7484</v>
       </c>
@@ -11045,7 +11015,7 @@
         <v>4.2192289999999997E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>19.524532000000001</v>
       </c>
@@ -11119,7 +11089,7 @@
         <v>1.306E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>19.746231000000002</v>
       </c>
@@ -11193,7 +11163,7 @@
         <v>2.3234000000000001E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>18.74372</v>
       </c>
@@ -11267,7 +11237,7 @@
         <v>1.2874E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>18.697970999999999</v>
       </c>
@@ -11341,7 +11311,7 @@
         <v>7.3125999999999997E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>18.772887999999998</v>
       </c>
@@ -11415,7 +11385,7 @@
         <v>4.8381149999999996E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>18.759806000000001</v>
       </c>
@@ -11489,7 +11459,7 @@
         <v>7.6131829999999999E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>18.681498000000001</v>
       </c>
@@ -11563,7 +11533,7 @@
         <v>1.0359E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>18.819642999999999</v>
       </c>
@@ -11637,7 +11607,7 @@
         <v>3.8663000000000003E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>19.104970000000002</v>
       </c>
@@ -11711,7 +11681,7 @@
         <v>4.0070000000000001E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>18.734112</v>
       </c>
@@ -11785,7 +11755,7 @@
         <v>1.4149E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>18.676120000000001</v>
       </c>
@@ -11859,7 +11829,7 @@
         <v>1.0474000000000001E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>18.663032999999999</v>
       </c>
@@ -11933,7 +11903,7 @@
         <v>2.8154999999999999E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>19.867653000000001</v>
       </c>
@@ -12007,7 +11977,7 @@
         <v>1.4853E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>18.703032</v>
       </c>
@@ -12081,7 +12051,7 @@
         <v>5.7968539999999997E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>19.048973</v>
       </c>
@@ -12155,7 +12125,7 @@
         <v>3.2910000000000002E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>18.726091</v>
       </c>
@@ -12242,34 +12212,34 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12343,7 +12313,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>20.48742</v>
       </c>
@@ -12417,7 +12387,7 @@
         <v>5.3190980000000004E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20.505687999999999</v>
       </c>
@@ -12491,7 +12461,7 @@
         <v>2.5260000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20.516075000000001</v>
       </c>
@@ -12565,7 +12535,7 @@
         <v>7.3333999999999996E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>20.481506</v>
       </c>
@@ -12639,7 +12609,7 @@
         <v>0.13025700000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20.444666000000002</v>
       </c>
@@ -12713,7 +12683,7 @@
         <v>0.101783</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>20.4467</v>
       </c>
@@ -12787,7 +12757,7 @@
         <v>7.281086E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>20.778666999999999</v>
       </c>
@@ -12861,7 +12831,7 @@
         <v>8.3096000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20.424948000000001</v>
       </c>
@@ -12935,7 +12905,7 @@
         <v>1.4494999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20.432873000000001</v>
       </c>
@@ -13009,7 +12979,7 @@
         <v>8.2838630000000007E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>20.330922999999999</v>
       </c>
@@ -13083,7 +13053,7 @@
         <v>8.9383199999999996E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>20.314412999999998</v>
       </c>
@@ -13157,7 +13127,7 @@
         <v>4.1480999999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>20.756512000000001</v>
       </c>
@@ -13231,7 +13201,7 @@
         <v>3.3510999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>20.328644000000001</v>
       </c>
@@ -13305,7 +13275,7 @@
         <v>8.0590369999999998E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20.334769999999999</v>
       </c>
@@ -13379,7 +13349,7 @@
         <v>5.4999740000000004E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>20.34864</v>
       </c>
@@ -13453,7 +13423,7 @@
         <v>4.3755000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>20.323343000000001</v>
       </c>
@@ -13527,7 +13497,7 @@
         <v>3.157333E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>20.91235</v>
       </c>
@@ -13601,7 +13571,7 @@
         <v>1.7975000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>20.322617000000001</v>
       </c>
@@ -13684,38 +13654,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13789,7 +13759,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>31.568494999999999</v>
       </c>
@@ -13811,7 +13781,7 @@
       <c r="T2" s="3"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>31.579744000000002</v>
       </c>
@@ -13885,7 +13855,7 @@
         <v>2.1767999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>31.544927999999999</v>
       </c>
@@ -13959,7 +13929,7 @@
         <v>6.9053000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>31.543327000000001</v>
       </c>
@@ -14033,7 +14003,7 @@
         <v>1.1129999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>31.590205999999998</v>
       </c>
@@ -14107,7 +14077,7 @@
         <v>8.7743000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>31.677841000000001</v>
       </c>
@@ -14181,7 +14151,7 @@
         <v>0.12483</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>31.762280000000001</v>
       </c>
@@ -14255,7 +14225,7 @@
         <v>0.130165</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>31.720894000000001</v>
       </c>
@@ -14329,7 +14299,7 @@
         <v>4.6112169999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>31.840109999999999</v>
       </c>
@@ -14403,7 +14373,7 @@
         <v>4.5090999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>31.729033000000001</v>
       </c>
@@ -14477,7 +14447,7 @@
         <v>0.50990899999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>31.603088</v>
       </c>
@@ -14551,7 +14521,7 @@
         <v>2.2314000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>31.245441</v>
       </c>
@@ -14625,7 +14595,7 @@
         <v>1.4874E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>31.354092000000001</v>
       </c>
@@ -14699,7 +14669,7 @@
         <v>5.5130429999999996E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>31.415554</v>
       </c>
@@ -14723,7 +14693,7 @@
       <c r="V15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>31.454622000000001</v>
       </c>
@@ -14797,7 +14767,7 @@
         <v>4.5782000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>31.417992000000002</v>
       </c>
@@ -14871,7 +14841,7 @@
         <v>3.9720839999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>31.643549</v>
       </c>
@@ -14945,7 +14915,7 @@
         <v>3.5680999999999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>31.500685000000001</v>
       </c>
@@ -15019,7 +14989,7 @@
         <v>3.1567999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>31.331173</v>
       </c>
@@ -15093,7 +15063,7 @@
         <v>3.5645000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>31.853348</v>
       </c>
@@ -15167,7 +15137,7 @@
         <v>3.2049000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>31.139858</v>
       </c>
@@ -15241,7 +15211,7 @@
         <v>1.3551000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>31.345787000000001</v>
       </c>
@@ -15315,7 +15285,7 @@
         <v>5.2512999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>31.066132</v>
       </c>
@@ -15389,7 +15359,7 @@
         <v>3.5347999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>31.270056</v>
       </c>
@@ -15463,7 +15433,7 @@
         <v>6.8110339999999997E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>31.627524999999999</v>
       </c>
@@ -15537,7 +15507,7 @@
         <v>1.5278E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>31.668842000000001</v>
       </c>
@@ -15611,7 +15581,7 @@
         <v>7.1334999999999996E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>31.248663000000001</v>
       </c>
@@ -15685,7 +15655,7 @@
         <v>5.4982000000000003E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>31.762371000000002</v>
       </c>
@@ -15759,7 +15729,7 @@
         <v>4.4553000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>31.003416000000001</v>
       </c>
@@ -15833,7 +15803,7 @@
         <v>6.0456999999999997E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31.708366000000002</v>
       </c>
@@ -15853,7 +15823,7 @@
         <v>37.027000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31.56108</v>
       </c>
@@ -15927,7 +15897,7 @@
         <v>5.8409000000000003E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>30.962326000000001</v>
       </c>
@@ -16008,40 +15978,40 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16115,7 +16085,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>37.922275999999997</v>
       </c>
@@ -16189,7 +16159,7 @@
         <v>2.2894590000000002E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>37.113613000000001</v>
       </c>
@@ -16263,7 +16233,7 @@
         <v>5.6413999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>37.654167000000001</v>
       </c>
@@ -16283,7 +16253,7 @@
         <v>39.619999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>36.946064</v>
       </c>
@@ -16357,7 +16327,7 @@
         <v>3.9372999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>36.739710000000002</v>
       </c>
@@ -16431,7 +16401,7 @@
         <v>7.8461020000000006E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>36.760815000000001</v>
       </c>
@@ -16505,7 +16475,7 @@
         <v>3.6401000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>36.742203000000003</v>
       </c>
@@ -16579,7 +16549,7 @@
         <v>2.9086000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>38.274357000000002</v>
       </c>
@@ -16653,7 +16623,7 @@
         <v>2.7577000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>38.513984999999998</v>
       </c>
@@ -16727,7 +16697,7 @@
         <v>5.0458000000000003E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>36.076317000000003</v>
       </c>
@@ -16801,7 +16771,7 @@
         <v>3.0158999999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>36.013275</v>
       </c>
@@ -16875,47 +16845,350 @@
         <v>2.1965999999999999E-2</v>
       </c>
     </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>37.922269999999997</v>
+      </c>
+      <c r="B14">
+        <v>-9.30044</v>
+      </c>
+      <c r="C14">
+        <v>1.6153000000000001E-2</v>
+      </c>
+      <c r="D14">
+        <v>4843</v>
+      </c>
+      <c r="E14">
+        <v>67.83</v>
+      </c>
+      <c r="F14" s="2">
+        <v>29.806000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>36.946060000000003</v>
+      </c>
+      <c r="B15">
+        <v>-8.6260995864868093</v>
+      </c>
+      <c r="C15">
+        <v>1.6563000000000001E-2</v>
+      </c>
+      <c r="D15">
+        <v>4966</v>
+      </c>
+      <c r="E15">
+        <v>69.52</v>
+      </c>
+      <c r="F15" s="2">
+        <v>40.847000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>36.945039999999999</v>
+      </c>
+      <c r="B16">
+        <v>-8.6234800000000007</v>
+      </c>
+      <c r="C16">
+        <v>1.6723999999999999E-2</v>
+      </c>
+      <c r="D16">
+        <v>5014</v>
+      </c>
+      <c r="E16">
+        <v>70.180000000000007</v>
+      </c>
+      <c r="F16" s="2">
+        <v>40.984000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>36.760829999999999</v>
+      </c>
+      <c r="B17">
+        <v>-9.4202300000000001</v>
+      </c>
+      <c r="C17">
+        <v>1.6503E-2</v>
+      </c>
+      <c r="D17">
+        <v>4947</v>
+      </c>
+      <c r="E17">
+        <v>69.27</v>
+      </c>
+      <c r="F17" s="2">
+        <v>51.762</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>36.760820000000002</v>
+      </c>
+      <c r="B18">
+        <v>-9.4202399999999997</v>
+      </c>
+      <c r="C18">
+        <v>1.6333E-2</v>
+      </c>
+      <c r="D18">
+        <v>4897</v>
+      </c>
+      <c r="E18">
+        <v>68.569999999999993</v>
+      </c>
+      <c r="F18" s="2">
+        <v>51.762999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>36.758540000000004</v>
+      </c>
+      <c r="B19">
+        <v>-9.4179000854492099</v>
+      </c>
+      <c r="C19">
+        <v>1.6345999999999999E-2</v>
+      </c>
+      <c r="D19">
+        <v>4900</v>
+      </c>
+      <c r="E19">
+        <v>68.63</v>
+      </c>
+      <c r="F19" s="2">
+        <v>51.811999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>36.742198944091797</v>
+      </c>
+      <c r="B20">
+        <v>-9.4617799999999992</v>
+      </c>
+      <c r="C20">
+        <v>2.1073000000000001E-2</v>
+      </c>
+      <c r="D20">
+        <v>6317</v>
+      </c>
+      <c r="E20">
+        <v>87.97</v>
+      </c>
+      <c r="F20" s="2">
+        <v>53.966000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>38.274349999999998</v>
+      </c>
+      <c r="B21">
+        <v>-8.3191100000000002</v>
+      </c>
+      <c r="C21">
+        <v>1.8832999999999999E-2</v>
+      </c>
+      <c r="D21">
+        <v>5646</v>
+      </c>
+      <c r="E21">
+        <v>78.83</v>
+      </c>
+      <c r="F21" s="2">
+        <v>60.381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>38.274459999999998</v>
+      </c>
+      <c r="B22">
+        <v>-8.3190500000000007</v>
+      </c>
+      <c r="C22">
+        <v>1.9015000000000001E-2</v>
+      </c>
+      <c r="D22">
+        <v>5701</v>
+      </c>
+      <c r="E22">
+        <v>79.58</v>
+      </c>
+      <c r="F22" s="2">
+        <v>60.387999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>37.351170000000003</v>
+      </c>
+      <c r="B23">
+        <v>-10.09657</v>
+      </c>
+      <c r="C23">
+        <v>2.1347000000000001E-2</v>
+      </c>
+      <c r="D23">
+        <v>6400</v>
+      </c>
+      <c r="E23">
+        <v>89.08</v>
+      </c>
+      <c r="F23" s="2">
+        <v>66.686999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>38.257750000000001</v>
+      </c>
+      <c r="B24">
+        <v>-9.9164899999999996</v>
+      </c>
+      <c r="C24">
+        <v>1.5724999999999999E-2</v>
+      </c>
+      <c r="D24">
+        <v>4714</v>
+      </c>
+      <c r="E24">
+        <v>66.069999999999993</v>
+      </c>
+      <c r="F24" s="2">
+        <v>70.194000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>38.513979999999997</v>
+      </c>
+      <c r="B25">
+        <v>-8.1090900000000001</v>
+      </c>
+      <c r="C25">
+        <v>1.9023000000000002E-2</v>
+      </c>
+      <c r="D25">
+        <v>5703</v>
+      </c>
+      <c r="E25">
+        <v>79.61</v>
+      </c>
+      <c r="F25" s="2">
+        <v>79.385999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>38.514119999999998</v>
+      </c>
+      <c r="B26">
+        <v>-8.10914</v>
+      </c>
+      <c r="C26">
+        <v>1.9205E-2</v>
+      </c>
+      <c r="D26">
+        <v>5758</v>
+      </c>
+      <c r="E26">
+        <v>80.349999999999994</v>
+      </c>
+      <c r="F26" s="2">
+        <v>79.39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>36.076329999999999</v>
+      </c>
+      <c r="B27">
+        <v>-9.5812899999999992</v>
+      </c>
+      <c r="C27">
+        <v>1.6378E-2</v>
+      </c>
+      <c r="D27">
+        <v>4910</v>
+      </c>
+      <c r="E27">
+        <v>68.760000000000005</v>
+      </c>
+      <c r="F27" s="2">
+        <v>92.534000000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>36.076320000000003</v>
+      </c>
+      <c r="B28">
+        <v>-9.5813199999999998</v>
+      </c>
+      <c r="C28">
+        <v>1.6372999999999999E-2</v>
+      </c>
+      <c r="D28">
+        <v>4909</v>
+      </c>
+      <c r="E28">
+        <v>68.739999999999995</v>
+      </c>
+      <c r="F28" s="2">
+        <v>92.534999999999997</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="K14:K28">
+    <sortCondition descending="1" ref="K14"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16989,7 +17262,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>38.652720000000002</v>
       </c>
@@ -17063,7 +17336,7 @@
         <v>8.4576999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>38.619570000000003</v>
       </c>
@@ -17137,7 +17410,7 @@
         <v>1.5741999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>38.698990000000002</v>
       </c>
@@ -17211,7 +17484,7 @@
         <v>1.5195E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>38.601795000000003</v>
       </c>
@@ -17285,7 +17558,7 @@
         <v>1.3226E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>38.708263000000002</v>
       </c>
@@ -17359,7 +17632,7 @@
         <v>1.2116999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>38.657783999999999</v>
       </c>
@@ -17433,7 +17706,7 @@
         <v>1.0331999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>38.857559999999999</v>
       </c>
@@ -17507,7 +17780,7 @@
         <v>1.4156999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>38.472957999999998</v>
       </c>
@@ -17581,7 +17854,7 @@
         <v>2.6963999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>38.213880000000003</v>
       </c>
@@ -17655,7 +17928,7 @@
         <v>6.6102410000000002E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>39.203629999999997</v>
       </c>
@@ -17729,7 +18002,7 @@
         <v>3.154039E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>39.162792000000003</v>
       </c>
@@ -17803,7 +18076,7 @@
         <v>1.1393E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>38.056694</v>
       </c>
@@ -17877,7 +18150,430 @@
         <v>2.7819E-2</v>
       </c>
     </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>38.655670000000001</v>
+      </c>
+      <c r="B15">
+        <v>-8.7819199999999995</v>
+      </c>
+      <c r="C15">
+        <v>4.3413E-2</v>
+      </c>
+      <c r="D15">
+        <v>13015</v>
+      </c>
+      <c r="E15">
+        <v>176.44</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>38.643709999999999</v>
+      </c>
+      <c r="B16">
+        <v>-8.7687399999999993</v>
+      </c>
+      <c r="C16">
+        <v>4.2838000000000001E-2</v>
+      </c>
+      <c r="D16">
+        <v>12842</v>
+      </c>
+      <c r="E16">
+        <v>174.22</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.4119999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>38.630749999999999</v>
+      </c>
+      <c r="B17">
+        <v>-8.7832799999999995</v>
+      </c>
+      <c r="C17">
+        <v>4.5027999999999999E-2</v>
+      </c>
+      <c r="D17">
+        <v>13499</v>
+      </c>
+      <c r="E17">
+        <v>182.65</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.619</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>38.619570000000003</v>
+      </c>
+      <c r="B18">
+        <v>-8.7992799999999995</v>
+      </c>
+      <c r="C18">
+        <v>4.1921E-2</v>
+      </c>
+      <c r="D18">
+        <v>12568</v>
+      </c>
+      <c r="E18">
+        <v>170.67</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2.3620000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>38.69896</v>
+      </c>
+      <c r="B19">
+        <v>-8.78477</v>
+      </c>
+      <c r="C19">
+        <v>4.2487999999999998E-2</v>
+      </c>
+      <c r="D19">
+        <v>12737</v>
+      </c>
+      <c r="E19">
+        <v>172.86</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2.4550000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>38.698990000000002</v>
+      </c>
+      <c r="B20">
+        <v>-8.7847100000000005</v>
+      </c>
+      <c r="C20">
+        <v>4.2300999999999998E-2</v>
+      </c>
+      <c r="D20">
+        <v>12681</v>
+      </c>
+      <c r="E20">
+        <v>172.14</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2.4569999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>38.689880000000002</v>
+      </c>
+      <c r="B21">
+        <v>-8.8336100000000002</v>
+      </c>
+      <c r="C21">
+        <v>4.3298000000000003E-2</v>
+      </c>
+      <c r="D21">
+        <v>12980</v>
+      </c>
+      <c r="E21">
+        <v>175.99</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3.347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>38.595370000000003</v>
+      </c>
+      <c r="B22">
+        <v>-8.7985399999999991</v>
+      </c>
+      <c r="C22">
+        <v>4.4963000000000003E-2</v>
+      </c>
+      <c r="D22">
+        <v>13480</v>
+      </c>
+      <c r="E22">
+        <v>182.4</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>38.601799011230398</v>
+      </c>
+      <c r="B23">
+        <v>-8.74831</v>
+      </c>
+      <c r="C23">
+        <v>4.2831000000000001E-2</v>
+      </c>
+      <c r="D23">
+        <v>12840</v>
+      </c>
+      <c r="E23">
+        <v>174.19</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4.0730000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>38.708260000000003</v>
+      </c>
+      <c r="B24">
+        <v>-8.8617000579833896</v>
+      </c>
+      <c r="C24">
+        <v>4.3050999999999999E-2</v>
+      </c>
+      <c r="D24">
+        <v>12906</v>
+      </c>
+      <c r="E24">
+        <v>175.04</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5.3529999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>38.657780000000002</v>
+      </c>
+      <c r="B25">
+        <v>-8.8844700000000003</v>
+      </c>
+      <c r="C25">
+        <v>4.3410999999999998E-2</v>
+      </c>
+      <c r="D25">
+        <v>13014</v>
+      </c>
+      <c r="E25">
+        <v>176.43</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>38.657789999999999</v>
+      </c>
+      <c r="B26">
+        <v>-8.8845100000000006</v>
+      </c>
+      <c r="C26">
+        <v>4.3597999999999998E-2</v>
+      </c>
+      <c r="D26">
+        <v>13070</v>
+      </c>
+      <c r="E26">
+        <v>177.15</v>
+      </c>
+      <c r="F26" s="2">
+        <v>5.8029999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>38.755420000000001</v>
+      </c>
+      <c r="B27">
+        <v>-8.5806999206542898</v>
+      </c>
+      <c r="C27">
+        <v>4.3663E-2</v>
+      </c>
+      <c r="D27">
+        <v>13090</v>
+      </c>
+      <c r="E27">
+        <v>177.4</v>
+      </c>
+      <c r="F27" s="2">
+        <v>13.712</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>38.47296</v>
+      </c>
+      <c r="B28">
+        <v>-9.0428800000000003</v>
+      </c>
+      <c r="C28">
+        <v>4.3491000000000002E-2</v>
+      </c>
+      <c r="D28">
+        <v>13038</v>
+      </c>
+      <c r="E28">
+        <v>176.73</v>
+      </c>
+      <c r="F28" s="2">
+        <v>18.818000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>38.322420000000001</v>
+      </c>
+      <c r="B29">
+        <v>-8.4177800000000005</v>
+      </c>
+      <c r="C29">
+        <v>3.9136999999999998E-2</v>
+      </c>
+      <c r="D29">
+        <v>11733</v>
+      </c>
+      <c r="E29">
+        <v>159.87</v>
+      </c>
+      <c r="F29" s="2">
+        <v>29.806999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>38.213880000000003</v>
+      </c>
+      <c r="B30">
+        <v>-9.1078700000000001</v>
+      </c>
+      <c r="C30">
+        <v>4.3930999999999998E-2</v>
+      </c>
+      <c r="D30">
+        <v>13170</v>
+      </c>
+      <c r="E30">
+        <v>178.43</v>
+      </c>
+      <c r="F30" s="2">
+        <v>32.567999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>38.213880000000003</v>
+      </c>
+      <c r="B31">
+        <v>-9.1078700000000001</v>
+      </c>
+      <c r="C31">
+        <v>4.3930999999999998E-2</v>
+      </c>
+      <c r="D31">
+        <v>13170</v>
+      </c>
+      <c r="E31">
+        <v>178.43</v>
+      </c>
+      <c r="F31" s="2">
+        <v>32.567999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>38.213880000000003</v>
+      </c>
+      <c r="B32">
+        <v>-9.1078700000000001</v>
+      </c>
+      <c r="C32">
+        <v>4.4103000000000003E-2</v>
+      </c>
+      <c r="D32">
+        <v>13222</v>
+      </c>
+      <c r="E32">
+        <v>179.09</v>
+      </c>
+      <c r="F32" s="2">
+        <v>32.567999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>38.213880000000003</v>
+      </c>
+      <c r="B33">
+        <v>-9.1079399999999993</v>
+      </c>
+      <c r="C33">
+        <v>4.3969000000000001E-2</v>
+      </c>
+      <c r="D33">
+        <v>13182</v>
+      </c>
+      <c r="E33">
+        <v>178.58</v>
+      </c>
+      <c r="F33" s="2">
+        <v>32.57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>38.056690000000003</v>
+      </c>
+      <c r="B34">
+        <v>-9.0566099999999992</v>
+      </c>
+      <c r="C34">
+        <v>4.4311000000000003E-2</v>
+      </c>
+      <c r="D34">
+        <v>13284</v>
+      </c>
+      <c r="E34">
+        <v>179.89</v>
+      </c>
+      <c r="F34" s="2">
+        <v>39.103000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>38.056620000000002</v>
+      </c>
+      <c r="B35">
+        <v>-9.0565800000000003</v>
+      </c>
+      <c r="C35">
+        <v>4.4498000000000003E-2</v>
+      </c>
+      <c r="D35">
+        <v>13340</v>
+      </c>
+      <c r="E35">
+        <v>180.61</v>
+      </c>
+      <c r="F35" s="2">
+        <v>39.106000000000002</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="K15:K35">
+    <sortCondition ref="K15"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17887,37 +18583,37 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17991,7 +18687,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>56.792327999999998</v>
       </c>
@@ -18065,7 +18761,7 @@
         <v>1.6195000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>56.790950000000002</v>
       </c>
@@ -18139,7 +18835,7 @@
         <v>1.3865000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>57.210279999999997</v>
       </c>
@@ -18213,7 +18909,7 @@
         <v>2.8041E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>57.226067</v>
       </c>
@@ -18287,7 +18983,7 @@
         <v>3.2316999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>57.248390000000001</v>
       </c>
@@ -18361,7 +19057,7 @@
         <v>4.5919489999999997E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>57.407215000000001</v>
       </c>
@@ -18435,7 +19131,7 @@
         <v>3.9793000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>56.384193000000003</v>
       </c>
@@ -18455,7 +19151,7 @@
         <v>45.539000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>56.382767000000001</v>
       </c>
@@ -18529,7 +19225,7 @@
         <v>6.1363000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>57.692737999999999</v>
       </c>
@@ -18603,7 +19299,7 @@
         <v>0.123566</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>56.548690000000001</v>
       </c>
@@ -18677,7 +19373,7 @@
         <v>1.6471E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>56.529716000000001</v>
       </c>
@@ -18751,7 +19447,7 @@
         <v>0.21554200000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>56.528649999999999</v>
       </c>
@@ -18825,7 +19521,7 @@
         <v>2.7623999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>57.474026000000002</v>
       </c>
@@ -18899,12 +19595,12 @@
         <v>3.7283999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="R16" s="3"/>
       <c r="T16" s="3"/>
       <c r="V16" s="3"/>
     </row>
-    <row r="17" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="18:22" x14ac:dyDescent="0.3">
       <c r="R17" s="3"/>
       <c r="T17" s="3"/>
       <c r="V17" s="3"/>
@@ -18916,40 +19612,40 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19023,7 +19719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>133.90314000000001</v>
       </c>
@@ -19097,7 +19793,7 @@
         <v>2.0237999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>134.11969999999999</v>
       </c>
@@ -19171,7 +19867,7 @@
         <v>1.9969000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>134.15219999999999</v>
       </c>
@@ -19245,7 +19941,7 @@
         <v>7.2652469999999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>134.12788</v>
       </c>
@@ -19319,7 +20015,7 @@
         <v>2.4988E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>134.07811000000001</v>
       </c>
@@ -19393,7 +20089,7 @@
         <v>5.8284000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>134.2013</v>
       </c>
@@ -19467,7 +20163,7 @@
         <v>4.4998999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>134.25335999999999</v>
       </c>
@@ -19541,7 +20237,7 @@
         <v>5.0541479999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>133.50345999999999</v>
       </c>
@@ -19561,7 +20257,7 @@
         <v>29.408000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>133.6439</v>
       </c>
@@ -19635,7 +20331,350 @@
         <v>1.1868E-2</v>
       </c>
     </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>133.90314000000001</v>
+      </c>
+      <c r="B12">
+        <v>0.92070001363754195</v>
+      </c>
+      <c r="C12">
+        <v>5.1815E-2</v>
+      </c>
+      <c r="D12">
+        <v>15534</v>
+      </c>
+      <c r="E12">
+        <v>208.49</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5.9710000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>134.11969999999999</v>
+      </c>
+      <c r="B13">
+        <v>0.89657998085021895</v>
+      </c>
+      <c r="C13">
+        <v>5.2635000000000001E-2</v>
+      </c>
+      <c r="D13">
+        <v>15779</v>
+      </c>
+      <c r="E13">
+        <v>211.59</v>
+      </c>
+      <c r="F13" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>134.15221</v>
+      </c>
+      <c r="B14">
+        <v>0.77843999862670898</v>
+      </c>
+      <c r="C14">
+        <v>5.2405E-2</v>
+      </c>
+      <c r="D14">
+        <v>15711</v>
+      </c>
+      <c r="E14">
+        <v>210.72</v>
+      </c>
+      <c r="F14" s="2">
+        <v>11.473000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>133.77221</v>
+      </c>
+      <c r="B15">
+        <v>0.949029982089996</v>
+      </c>
+      <c r="C15">
+        <v>5.1726000000000001E-2</v>
+      </c>
+      <c r="D15">
+        <v>15507</v>
+      </c>
+      <c r="E15">
+        <v>208.16</v>
+      </c>
+      <c r="F15" s="2">
+        <v>13.522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>133.77221</v>
+      </c>
+      <c r="B16">
+        <v>0.949029982089996</v>
+      </c>
+      <c r="C16">
+        <v>5.1776000000000003E-2</v>
+      </c>
+      <c r="D16">
+        <v>15522</v>
+      </c>
+      <c r="E16">
+        <v>208.34</v>
+      </c>
+      <c r="F16" s="2">
+        <v>13.522</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>134.12788</v>
+      </c>
+      <c r="B17">
+        <v>1.0259599685668901</v>
+      </c>
+      <c r="C17">
+        <v>5.7424999999999997E-2</v>
+      </c>
+      <c r="D17">
+        <v>17216</v>
+      </c>
+      <c r="E17">
+        <v>229.54</v>
+      </c>
+      <c r="F17" s="2">
+        <v>13.802</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>134.07811000000001</v>
+      </c>
+      <c r="B18">
+        <v>0.63502001762390103</v>
+      </c>
+      <c r="C18">
+        <v>5.2185000000000002E-2</v>
+      </c>
+      <c r="D18">
+        <v>15645</v>
+      </c>
+      <c r="E18">
+        <v>209.89</v>
+      </c>
+      <c r="F18" s="2">
+        <v>14.442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>134.2013</v>
+      </c>
+      <c r="B19">
+        <v>0.69211000204086304</v>
+      </c>
+      <c r="C19">
+        <v>5.2824999999999997E-2</v>
+      </c>
+      <c r="D19">
+        <v>15837</v>
+      </c>
+      <c r="E19">
+        <v>212.3</v>
+      </c>
+      <c r="F19" s="2">
+        <v>16.605</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>134.17582999999999</v>
+      </c>
+      <c r="B20">
+        <v>0.63301002979278498</v>
+      </c>
+      <c r="C20">
+        <v>5.2826999999999999E-2</v>
+      </c>
+      <c r="D20">
+        <v>15837</v>
+      </c>
+      <c r="E20">
+        <v>212.31</v>
+      </c>
+      <c r="F20" s="2">
+        <v>17.827999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>134.01696000000001</v>
+      </c>
+      <c r="B21">
+        <v>0.53070998191833496</v>
+      </c>
+      <c r="C21">
+        <v>5.2776999999999998E-2</v>
+      </c>
+      <c r="D21">
+        <v>15822</v>
+      </c>
+      <c r="E21">
+        <v>212.12</v>
+      </c>
+      <c r="F21" s="2">
+        <v>19.495999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>134.25335000000001</v>
+      </c>
+      <c r="B22">
+        <v>0.50552999973297097</v>
+      </c>
+      <c r="C22">
+        <v>5.3164999999999997E-2</v>
+      </c>
+      <c r="D22">
+        <v>15938</v>
+      </c>
+      <c r="E22">
+        <v>213.58</v>
+      </c>
+      <c r="F22" s="2">
+        <v>26.672000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>134.21769</v>
+      </c>
+      <c r="B23">
+        <v>1.25545001029968</v>
+      </c>
+      <c r="C23">
+        <v>5.2449999999999997E-2</v>
+      </c>
+      <c r="D23">
+        <v>15724</v>
+      </c>
+      <c r="E23">
+        <v>210.89</v>
+      </c>
+      <c r="F23" s="2">
+        <v>28.158000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>134.21796000000001</v>
+      </c>
+      <c r="B24">
+        <v>1.2557300329208301</v>
+      </c>
+      <c r="C24">
+        <v>5.2495E-2</v>
+      </c>
+      <c r="D24">
+        <v>15738</v>
+      </c>
+      <c r="E24">
+        <v>211.06</v>
+      </c>
+      <c r="F24" s="2">
+        <v>28.181000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>133.79112000000001</v>
+      </c>
+      <c r="B25">
+        <v>0.411469995975494</v>
+      </c>
+      <c r="C25">
+        <v>5.2705000000000002E-2</v>
+      </c>
+      <c r="D25">
+        <v>15801</v>
+      </c>
+      <c r="E25">
+        <v>211.85</v>
+      </c>
+      <c r="F25" s="2">
+        <v>28.727</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>133.74612999999999</v>
+      </c>
+      <c r="B26">
+        <v>0.42724001407623202</v>
+      </c>
+      <c r="C26">
+        <v>5.2824999999999997E-2</v>
+      </c>
+      <c r="D26">
+        <v>15837</v>
+      </c>
+      <c r="E26">
+        <v>212.3</v>
+      </c>
+      <c r="F26" s="2">
+        <v>29.038</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>133.50346999999999</v>
+      </c>
+      <c r="B27">
+        <v>0.98293000459670998</v>
+      </c>
+      <c r="C27">
+        <v>5.1885000000000001E-2</v>
+      </c>
+      <c r="D27">
+        <v>15555</v>
+      </c>
+      <c r="E27">
+        <v>208.76</v>
+      </c>
+      <c r="F27" s="2">
+        <v>29.408000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>133.6439</v>
+      </c>
+      <c r="B28">
+        <v>0.48504000902175898</v>
+      </c>
+      <c r="C28">
+        <v>5.3225000000000001E-2</v>
+      </c>
+      <c r="D28">
+        <v>15957</v>
+      </c>
+      <c r="E28">
+        <v>213.81</v>
+      </c>
+      <c r="F28" s="2">
+        <v>29.747</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="K12:K28">
+    <sortCondition ref="K12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19648,32 +20687,32 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19747,7 +20786,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>144.27258</v>
       </c>
@@ -19821,7 +20860,7 @@
         <v>3.4374000000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>144.21588</v>
       </c>
@@ -19895,7 +20934,7 @@
         <v>4.3395509999999997E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>144.25827000000001</v>
       </c>
@@ -19969,7 +21008,7 @@
         <v>1.7665E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>144.05369999999999</v>
       </c>
@@ -20043,7 +21082,7 @@
         <v>4.5019999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>143.9221</v>
       </c>
@@ -20117,7 +21156,7 @@
         <v>5.1056560000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>143.96510000000001</v>
       </c>
@@ -20191,7 +21230,7 @@
         <v>8.0305480000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>144.07028</v>
       </c>
@@ -20265,7 +21304,7 @@
         <v>5.2537E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>144.0256</v>
       </c>
@@ -20339,7 +21378,7 @@
         <v>6.4120460000000002E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>144.53671</v>
       </c>
@@ -20413,7 +21452,7 @@
         <v>9.6293549999999992E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>144.60863000000001</v>
       </c>

--- a/sdss_companion_photometry.xlsx
+++ b/sdss_companion_photometry.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\environment_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{82DEB6C2-6D36-4626-8413-4A254E5D983C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCE0D75-58EF-468C-B40B-2185005109BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="6072" tabRatio="884" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
